--- a/Result_files/V3_Bids_2021-07-26_2021-08-01.xlsx
+++ b/Result_files/V3_Bids_2021-07-26_2021-08-01.xlsx
@@ -545,22 +545,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G2" t="n">
         <v>47.57999999999998</v>
       </c>
       <c r="H2" t="n">
-        <v>47.3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47.221</v>
+        <v>47.988</v>
       </c>
       <c r="J2" t="n">
-        <v>-1429.069478269904</v>
+        <v>3315.686582616201</v>
       </c>
       <c r="K2" t="n">
         <v>83.10002</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5300.209962062992</v>
+        <v>5300.209962062991</v>
       </c>
       <c r="K3" t="n">
         <v>77.360001</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5205.373437724254</v>
+        <v>5205.373437724252</v>
       </c>
       <c r="K4" t="n">
         <v>75.989998</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>5138.326012538329</v>
+        <v>5138.326012538327</v>
       </c>
       <c r="K5" t="n">
         <v>75.10002</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>60.4</v>
+        <v>79.88</v>
       </c>
       <c r="D6" t="n">
         <v>49.8</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5054.634321605946</v>
+        <v>5264.18118400278</v>
       </c>
       <c r="K6" t="n">
         <v>74.120003</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>60.4</v>
+        <v>79.88</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="F7" t="n">
-        <v>5.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.7</v>
+        <v>49.8</v>
       </c>
       <c r="I7" t="n">
         <v>49.3669999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>-2432.918372688076</v>
+        <v>-1767.411650621787</v>
       </c>
       <c r="K7" t="n">
         <v>78.99997999999999</v>
@@ -875,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>60.4</v>
+        <v>79.88</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>50.00400000000002</v>
+        <v>50.004</v>
       </c>
       <c r="H8" t="n">
         <v>49.8</v>
@@ -896,7 +896,7 @@
         <v>49.3669999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>-4719.274605451759</v>
+        <v>-2306.645754853811</v>
       </c>
       <c r="K8" t="n">
         <v>95.59998</v>
@@ -931,28 +931,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>60.4</v>
+        <v>79.88</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>50.004</v>
+        <v>47.625</v>
       </c>
       <c r="H9" t="n">
-        <v>49.8</v>
+        <v>38.8</v>
       </c>
       <c r="I9" t="n">
         <v>49.3669999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>-4974.363431076626</v>
+        <v>-2487.71503676</v>
       </c>
       <c r="K9" t="n">
         <v>103.769997</v>
@@ -987,28 +987,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>60.64</v>
+        <v>79.88</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="G10" t="n">
-        <v>49.897</v>
+        <v>47.625</v>
       </c>
       <c r="H10" t="n">
-        <v>49.8</v>
+        <v>25.2</v>
       </c>
       <c r="I10" t="n">
         <v>48.93899999999991</v>
       </c>
       <c r="J10" t="n">
-        <v>-9180.945707651212</v>
+        <v>-2472.590292257049</v>
       </c>
       <c r="K10" t="n">
         <v>105.25</v>
@@ -1043,28 +1043,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>60.64</v>
+        <v>79.88</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F11" t="n">
-        <v>49.8</v>
+        <v>44.7</v>
       </c>
       <c r="G11" t="n">
         <v>47.625</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>47.633</v>
+        <v>46.8189999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>-5827.9346886312</v>
+        <v>-2392.167817260004</v>
       </c>
       <c r="K11" t="n">
         <v>96.91999800000001</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>60.64</v>
+        <v>79.88</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>49.8</v>
+        <v>18.8</v>
       </c>
       <c r="I12" t="n">
         <v>46.8189999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>-13538.0965644238</v>
+        <v>-2052.139096739998</v>
       </c>
       <c r="K12" t="n">
         <v>88.80002</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>60.64</v>
+        <v>79.88</v>
       </c>
       <c r="D13" t="n">
-        <v>49.8</v>
+        <v>39.5</v>
       </c>
       <c r="E13" t="n">
         <v>0.31</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-13153.81016030229</v>
+        <v>-13.4750695</v>
       </c>
       <c r="K13" t="n">
         <v>85.370003</v>
@@ -1208,13 +1208,13 @@
         <v>44403.5</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>46</v>
       </c>
       <c r="D14" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E14" t="n">
         <v>0.31</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-6350.153329429412</v>
+        <v>-1219.614176822815</v>
       </c>
       <c r="K14" t="n">
         <v>81.31999999999999</v>
@@ -1264,7 +1264,7 @@
         <v>44403.54166666666</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>46</v>
@@ -1273,22 +1273,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F15" t="n">
-        <v>49.8</v>
+        <v>11.7</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>36.1</v>
       </c>
       <c r="I15" t="n">
-        <v>47.395</v>
+        <v>46.72399999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>-8080.49685273859</v>
+        <v>-2199.921702579059</v>
       </c>
       <c r="K15" t="n">
         <v>78.589996</v>
@@ -1320,7 +1320,7 @@
         <v>44403.58333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>46</v>
@@ -1329,22 +1329,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F16" t="n">
-        <v>49.8</v>
+        <v>28.4</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>19.4</v>
       </c>
       <c r="I16" t="n">
-        <v>47.395</v>
+        <v>46.72399999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>-4245.526537289959</v>
+        <v>-2027.024453836979</v>
       </c>
       <c r="K16" t="n">
         <v>75.639999</v>
@@ -1376,7 +1376,7 @@
         <v>44403.625</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>46</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F17" t="n">
-        <v>49.8</v>
+        <v>14.1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="I17" t="n">
-        <v>47.395</v>
+        <v>46.72399999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>-3943.414351246323</v>
+        <v>-2172.280680863826</v>
       </c>
       <c r="K17" t="n">
         <v>74</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>63.89</v>
+        <v>74.7</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F18" t="n">
         <v>49.8</v>
@@ -1456,7 +1456,7 @@
         <v>47.3</v>
       </c>
       <c r="J18" t="n">
-        <v>-4570.282684331133</v>
+        <v>2430.292569376597</v>
       </c>
       <c r="K18" t="n">
         <v>79.91999800000001</v>
@@ -1491,28 +1491,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>63.89</v>
+        <v>74.7</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F19" t="n">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>47.3479999999999</v>
+        <v>47.897</v>
       </c>
       <c r="H19" t="n">
-        <v>32.1</v>
+        <v>49.8</v>
       </c>
       <c r="I19" t="n">
         <v>46.7709999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>-2357.614075050002</v>
+        <v>-1514.567445975673</v>
       </c>
       <c r="K19" t="n">
         <v>87.980003</v>
@@ -1547,28 +1547,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>63.89</v>
+        <v>74.7</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>47.3479999999999</v>
+        <v>47.897</v>
       </c>
       <c r="H20" t="n">
-        <v>47.5</v>
+        <v>49.8</v>
       </c>
       <c r="I20" t="n">
         <v>46.7709999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>-2339.337231283966</v>
+        <v>-1459.534990018608</v>
       </c>
       <c r="K20" t="n">
         <v>94</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>63.89</v>
+        <v>74.7</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>46.8189999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>-1893.252489560264</v>
+        <v>-1417.364440349795</v>
       </c>
       <c r="K21" t="n">
         <v>99.91999800000001</v>
@@ -1659,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>50.52</v>
+        <v>61.25</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>46.8189999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>-1408.433975420903</v>
+        <v>-1404.189709548047</v>
       </c>
       <c r="K22" t="n">
         <v>105</v>
@@ -1715,13 +1715,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>50.52</v>
+        <v>61.25</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>46.8189999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>-1420.349959382091</v>
+        <v>-1420.34995938209</v>
       </c>
       <c r="K23" t="n">
         <v>102.29999</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>50.52</v>
+        <v>61.25</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>50.52</v>
+        <v>61.25</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="G25" t="n">
-        <v>48.832</v>
+        <v>47.3479999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>49.8</v>
+        <v>5.2</v>
       </c>
       <c r="I25" t="n">
         <v>47.05699999999996</v>
       </c>
       <c r="J25" t="n">
-        <v>-1548.860850048517</v>
+        <v>3008.75088845852</v>
       </c>
       <c r="K25" t="n">
         <v>83.94000200000001</v>
@@ -1892,19 +1892,19 @@
         <v>0.33</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G26" t="n">
-        <v>47.58</v>
+        <v>47.5689999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>47.221</v>
+        <v>47.234</v>
       </c>
       <c r="J26" t="n">
-        <v>-1427.330866910936</v>
+        <v>3413.309676735348</v>
       </c>
       <c r="K26" t="n">
         <v>83.10002</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5374.319820952222</v>
+        <v>5374.319820952221</v>
       </c>
       <c r="K27" t="n">
         <v>77.360001</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4901.035597931732</v>
+        <v>5307.154818440217</v>
       </c>
       <c r="K30" t="n">
         <v>74.120003</v>
@@ -2184,7 +2184,7 @@
         <v>49.387</v>
       </c>
       <c r="J31" t="n">
-        <v>1623.597775970296</v>
+        <v>2839.549037940144</v>
       </c>
       <c r="K31" t="n">
         <v>78.99997999999999</v>
@@ -2228,19 +2228,19 @@
         <v>0.33</v>
       </c>
       <c r="F32" t="n">
-        <v>49.7</v>
+        <v>13.7</v>
       </c>
       <c r="G32" t="n">
         <v>49.98099999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>36.1</v>
       </c>
       <c r="I32" t="n">
         <v>49.3669999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>-2481.83403183855</v>
+        <v>-2462.133908948572</v>
       </c>
       <c r="K32" t="n">
         <v>95.59998</v>
@@ -2296,7 +2296,7 @@
         <v>49.387</v>
       </c>
       <c r="J33" t="n">
-        <v>-3557.171499684632</v>
+        <v>-3660.030938793473</v>
       </c>
       <c r="K33" t="n">
         <v>103.769997</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>53</v>
+        <v>61.25</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>48.959</v>
       </c>
       <c r="J34" t="n">
-        <v>-3414.860493140862</v>
+        <v>-7439.164216890304</v>
       </c>
       <c r="K34" t="n">
         <v>105.25</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>53</v>
+        <v>61.25</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>46.832</v>
       </c>
       <c r="J35" t="n">
-        <v>-7394.676131333982</v>
+        <v>-9799.481529570845</v>
       </c>
       <c r="K35" t="n">
         <v>96.91999800000001</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>53</v>
+        <v>61.25</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>46.832</v>
       </c>
       <c r="J36" t="n">
-        <v>-7992.938230799158</v>
+        <v>-10769.79388540319</v>
       </c>
       <c r="K36" t="n">
         <v>88.80002</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>53</v>
+        <v>61.25</v>
       </c>
       <c r="D37" t="n">
         <v>49.8</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-9793.040641144675</v>
+        <v>-8322.788213309472</v>
       </c>
       <c r="K37" t="n">
         <v>85.370003</v>
@@ -2558,7 +2558,7 @@
         <v>56</v>
       </c>
       <c r="D38" t="n">
-        <v>20.8</v>
+        <v>49.8</v>
       </c>
       <c r="E38" t="n">
         <v>0.319999999999709</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-5.452781222051899</v>
+        <v>-7209.457118720924</v>
       </c>
       <c r="K38" t="n">
         <v>81.31999999999999</v>
@@ -2632,7 +2632,7 @@
         <v>46.737</v>
       </c>
       <c r="J39" t="n">
-        <v>903.6762091510003</v>
+        <v>-6420.053990859316</v>
       </c>
       <c r="K39" t="n">
         <v>78.589996</v>
@@ -2688,7 +2688,7 @@
         <v>46.737</v>
       </c>
       <c r="J40" t="n">
-        <v>-3985.323354331656</v>
+        <v>-4117.943567333916</v>
       </c>
       <c r="K40" t="n">
         <v>75.639999</v>
@@ -2744,7 +2744,7 @@
         <v>46.737</v>
       </c>
       <c r="J41" t="n">
-        <v>-6451.400387291173</v>
+        <v>-1317.231030782535</v>
       </c>
       <c r="K41" t="n">
         <v>74</v>
@@ -2800,7 +2800,7 @@
         <v>46.785</v>
       </c>
       <c r="J42" t="n">
-        <v>-6454.713039552901</v>
+        <v>2201.636250785501</v>
       </c>
       <c r="K42" t="n">
         <v>79.91999800000001</v>
@@ -2844,19 +2844,19 @@
         <v>0.33</v>
       </c>
       <c r="F43" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>47.33699999999993</v>
+        <v>47.348</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I43" t="n">
-        <v>46.785</v>
+        <v>46.77199999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>-3956.168382887338</v>
+        <v>-1470.156463561533</v>
       </c>
       <c r="K43" t="n">
         <v>87.980003</v>
@@ -2900,19 +2900,19 @@
         <v>0.33</v>
       </c>
       <c r="F44" t="n">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>47.33699999999993</v>
+        <v>47.348</v>
       </c>
       <c r="H44" t="n">
-        <v>22.3</v>
+        <v>49.8</v>
       </c>
       <c r="I44" t="n">
         <v>46.77199999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>-2340.349549803617</v>
+        <v>-1413.710306296929</v>
       </c>
       <c r="K44" t="n">
         <v>94</v>
@@ -2968,7 +2968,7 @@
         <v>46.8189999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>-3276.525079257071</v>
+        <v>-1367.335931390589</v>
       </c>
       <c r="K45" t="n">
         <v>99.91999800000001</v>
@@ -3024,7 +3024,7 @@
         <v>46.8189999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>-1428.381778819905</v>
+        <v>-1374.586579850814</v>
       </c>
       <c r="K46" t="n">
         <v>105</v>
@@ -3080,7 +3080,7 @@
         <v>46.8189999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>-1398.793431877034</v>
+        <v>-1398.793431877035</v>
       </c>
       <c r="K47" t="n">
         <v>102.29999</v>
@@ -3136,7 +3136,7 @@
         <v>47.05699999999996</v>
       </c>
       <c r="J48" t="n">
-        <v>-1430.469327776215</v>
+        <v>-1430.469327776217</v>
       </c>
       <c r="K48" t="n">
         <v>97.59998</v>
@@ -3236,19 +3236,19 @@
         <v>0.32</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G50" t="n">
-        <v>48.593</v>
+        <v>47.5689999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>47.221</v>
+        <v>48.009</v>
       </c>
       <c r="J50" t="n">
-        <v>-1471.821953677272</v>
+        <v>3360.18985270349</v>
       </c>
       <c r="K50" t="n">
         <v>86.29998999999999</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>60.4</v>
+        <v>65.83</v>
       </c>
       <c r="D54" t="n">
         <v>49.8</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>5240.331238964612</v>
+        <v>5270.485696533296</v>
       </c>
       <c r="K54" t="n">
         <v>76.66999800000001</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>60.4</v>
+        <v>65.83</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>49.36700000000002</v>
+        <v>50.692</v>
       </c>
       <c r="J55" t="n">
-        <v>3102.321426448828</v>
+        <v>3161.245662627374</v>
       </c>
       <c r="K55" t="n">
         <v>83.29998999999999</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>60.4</v>
+        <v>65.83</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -3572,19 +3572,19 @@
         <v>0.32</v>
       </c>
       <c r="F56" t="n">
-        <v>19.9</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>29.9</v>
+        <v>42.2</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-2030.211710941961</v>
+        <v>-2006.836987360956</v>
       </c>
       <c r="K56" t="n">
         <v>94.41999800000001</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>60.4</v>
+        <v>65.83</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3628,19 +3628,19 @@
         <v>0.35</v>
       </c>
       <c r="F57" t="n">
-        <v>43.40000000000001</v>
+        <v>26.4</v>
       </c>
       <c r="G57" t="n">
         <v>47.36199999999991</v>
       </c>
       <c r="H57" t="n">
-        <v>6.4</v>
+        <v>23.4</v>
       </c>
       <c r="I57" t="n">
         <v>47.41499999999991</v>
       </c>
       <c r="J57" t="n">
-        <v>-2517.509883399998</v>
+        <v>-2501.686184109393</v>
       </c>
       <c r="K57" t="n">
         <v>105.629997</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>58.86</v>
+        <v>76.78</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>48.939</v>
       </c>
       <c r="J58" t="n">
-        <v>-3950.040680489969</v>
+        <v>-3551.653501210916</v>
       </c>
       <c r="K58" t="n">
         <v>106.910004</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>58.86</v>
+        <v>76.78</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>47.633</v>
       </c>
       <c r="J59" t="n">
-        <v>-3914.872136223833</v>
+        <v>-8195.429480131486</v>
       </c>
       <c r="K59" t="n">
         <v>98.59998</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>58.86</v>
+        <v>76.78</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>46.819</v>
+        <v>47.633</v>
       </c>
       <c r="J60" t="n">
-        <v>-6857.992639693004</v>
+        <v>-10543.50320501908</v>
       </c>
       <c r="K60" t="n">
         <v>93.10002</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>58.86</v>
+        <v>76.78</v>
       </c>
       <c r="D61" t="n">
         <v>49.8</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-11717.06520940352</v>
+        <v>-9437.838107831436</v>
       </c>
       <c r="K61" t="n">
         <v>89.949997</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>74</v>
+        <v>83.56</v>
       </c>
       <c r="D62" t="n">
         <v>49.8</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-11031.67188209024</v>
+        <v>-6744.531845182915</v>
       </c>
       <c r="K62" t="n">
         <v>88.89995999999999</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>74</v>
+        <v>83.56</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3973,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>46.72400000000001</v>
+        <v>46.724</v>
       </c>
       <c r="J63" t="n">
-        <v>-14103.01871764931</v>
+        <v>-6272.444228668295</v>
       </c>
       <c r="K63" t="n">
         <v>79.19000200000001</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>74</v>
+        <v>83.56</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>46.72400000000001</v>
+        <v>46.724</v>
       </c>
       <c r="J64" t="n">
-        <v>-10382.63594122228</v>
+        <v>-4012.992590808617</v>
       </c>
       <c r="K64" t="n">
         <v>74.510002</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>74</v>
+        <v>83.56</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>46.72400000000001</v>
+        <v>46.724</v>
       </c>
       <c r="J65" t="n">
-        <v>-8624.825917438528</v>
+        <v>-1105.282909498146</v>
       </c>
       <c r="K65" t="n">
         <v>75.10002</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>63.89</v>
+        <v>77.16</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>47.368</v>
       </c>
       <c r="J66" t="n">
-        <v>-6136.901392635421</v>
+        <v>1898.891003526094</v>
       </c>
       <c r="K66" t="n">
         <v>75.800003</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>63.89</v>
+        <v>77.16</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>47.368</v>
       </c>
       <c r="J67" t="n">
-        <v>-4153.83921500897</v>
+        <v>3454.824574502339</v>
       </c>
       <c r="K67" t="n">
         <v>85.449997</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>63.89</v>
+        <v>77.16</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -4244,19 +4244,19 @@
         <v>0.35</v>
       </c>
       <c r="F68" t="n">
-        <v>27.4</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>47.33699999999993</v>
+        <v>47.897</v>
       </c>
       <c r="H68" t="n">
-        <v>22.4</v>
+        <v>49.8</v>
       </c>
       <c r="I68" t="n">
         <v>46.7709999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>-2374.602651460001</v>
+        <v>-1472.96862041927</v>
       </c>
       <c r="K68" t="n">
         <v>93.550003</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>63.89</v>
+        <v>77.16</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -4312,7 +4312,7 @@
         <v>46.8189999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>-1815.228635343707</v>
+        <v>-1419.145374521638</v>
       </c>
       <c r="K69" t="n">
         <v>103.419998</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>61.25</v>
+        <v>75.42</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>61.25</v>
+        <v>75.42</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>48.547</v>
+        <v>47.892</v>
       </c>
       <c r="H71" t="n">
         <v>49.8</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>61.25</v>
+        <v>75.42</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>61.25</v>
+        <v>75.42</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>47.05699999999996</v>
       </c>
       <c r="J73" t="n">
-        <v>-1539.585529238193</v>
+        <v>-1539.585529238195</v>
       </c>
       <c r="K73" t="n">
         <v>89.91999800000001</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>47.221</v>
       </c>
       <c r="J74" t="n">
-        <v>-1424.079918164424</v>
+        <v>-1424.079918164421</v>
       </c>
       <c r="K74" t="n">
         <v>87.970001</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>5516.100973494316</v>
+        <v>5516.100973494313</v>
       </c>
       <c r="K75" t="n">
         <v>78.7</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>5360.247821528032</v>
+        <v>5360.247821528038</v>
       </c>
       <c r="K76" t="n">
         <v>76.839996</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>61.44</v>
+        <v>77.52</v>
       </c>
       <c r="D78" t="n">
         <v>49.8</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>5035.780391667906</v>
+        <v>5386.825912755871</v>
       </c>
       <c r="K78" t="n">
         <v>75.239998</v>
@@ -4851,13 +4851,13 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>61.44</v>
+        <v>77.52</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F79" t="n">
         <v>49.8</v>
@@ -4872,7 +4872,7 @@
         <v>49.3669999999999</v>
       </c>
       <c r="J79" t="n">
-        <v>566.838431517601</v>
+        <v>2811.29897595964</v>
       </c>
       <c r="K79" t="n">
         <v>77.80999799999999</v>
@@ -4907,28 +4907,28 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>61.44</v>
+        <v>77.52</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.32</v>
+        <v>0.85</v>
       </c>
       <c r="F80" t="n">
-        <v>37.5</v>
+        <v>24.5</v>
       </c>
       <c r="G80" t="n">
         <v>49.98099999999999</v>
       </c>
       <c r="H80" t="n">
-        <v>12.3</v>
+        <v>25.3</v>
       </c>
       <c r="I80" t="n">
         <v>49.3669999999999</v>
       </c>
       <c r="J80" t="n">
-        <v>-2504.947221184729</v>
+        <v>-2500.915928490681</v>
       </c>
       <c r="K80" t="n">
         <v>92.879997</v>
@@ -4963,28 +4963,28 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>61.44</v>
+        <v>77.52</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.32</v>
+        <v>0.86</v>
       </c>
       <c r="F81" t="n">
-        <v>32.3</v>
+        <v>49.8</v>
       </c>
       <c r="G81" t="n">
         <v>49.98099999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>49.3669999999999</v>
       </c>
       <c r="J81" t="n">
-        <v>-2505.311022509999</v>
+        <v>-2903.762787593386</v>
       </c>
       <c r="K81" t="n">
         <v>104.489998</v>
@@ -5019,28 +5019,28 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>61.25</v>
+        <v>74.87</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.32</v>
+        <v>0.86</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G82" t="n">
-        <v>52.098</v>
+        <v>49.87399999999997</v>
       </c>
       <c r="H82" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>48.93899999999991</v>
+        <v>50.331</v>
       </c>
       <c r="J82" t="n">
-        <v>-10752.51439719561</v>
+        <v>-6068.066524807075</v>
       </c>
       <c r="K82" t="n">
         <v>107.970001</v>
@@ -5075,28 +5075,28 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>61.25</v>
+        <v>74.87</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>34.9</v>
+        <v>49.8</v>
       </c>
       <c r="G83" t="n">
         <v>47.988</v>
       </c>
       <c r="H83" t="n">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>46.8189999999999</v>
+        <v>47.654</v>
       </c>
       <c r="J83" t="n">
-        <v>-2386.29601499135</v>
+        <v>-10304.27736169434</v>
       </c>
       <c r="K83" t="n">
         <v>104.620003</v>
@@ -5131,13 +5131,13 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>61.25</v>
+        <v>74.87</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F84" t="n">
         <v>49.8</v>
@@ -5152,7 +5152,7 @@
         <v>47.654</v>
       </c>
       <c r="J84" t="n">
-        <v>-8497.08627966377</v>
+        <v>-8136.593688390668</v>
       </c>
       <c r="K84" t="n">
         <v>105.459999</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>61.25</v>
+        <v>74.87</v>
       </c>
       <c r="D85" t="n">
         <v>49.8</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-14190.54295733694</v>
+        <v>-4188.506691238351</v>
       </c>
       <c r="K85" t="n">
         <v>102.379997</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>63.88</v>
+        <v>74</v>
       </c>
       <c r="D86" t="n">
         <v>49.8</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-6186.190135009229</v>
+        <v>-4150.005236215216</v>
       </c>
       <c r="K86" t="n">
         <v>95</v>
@@ -5299,13 +5299,13 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>63.88</v>
+        <v>74</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F87" t="n">
         <v>49.8</v>
@@ -5320,7 +5320,7 @@
         <v>47.415</v>
       </c>
       <c r="J87" t="n">
-        <v>-6668.586348687408</v>
+        <v>-5327.742154784398</v>
       </c>
       <c r="K87" t="n">
         <v>91.91999800000001</v>
@@ -5355,13 +5355,13 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>63.88</v>
+        <v>74</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F88" t="n">
         <v>49.8</v>
@@ -5376,7 +5376,7 @@
         <v>47.415</v>
       </c>
       <c r="J88" t="n">
-        <v>-10518.94264252805</v>
+        <v>-2782.579923724636</v>
       </c>
       <c r="K88" t="n">
         <v>87</v>
@@ -5411,13 +5411,13 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>63.88</v>
+        <v>74</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F89" t="n">
         <v>49.8</v>
@@ -5432,7 +5432,7 @@
         <v>47.415</v>
       </c>
       <c r="J89" t="n">
-        <v>-7886.398451701176</v>
+        <v>-261.038917421791</v>
       </c>
       <c r="K89" t="n">
         <v>83.209999</v>
@@ -5467,13 +5467,13 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>61.17</v>
+        <v>66</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F90" t="n">
         <v>49.8</v>
@@ -5488,7 +5488,7 @@
         <v>47.32</v>
       </c>
       <c r="J90" t="n">
-        <v>-6997.5046910214</v>
+        <v>1320.941715300868</v>
       </c>
       <c r="K90" t="n">
         <v>82.5</v>
@@ -5523,28 +5523,28 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>61.17</v>
+        <v>66</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>47.33699999999993</v>
+        <v>47.897</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I91" t="n">
-        <v>47.32</v>
+        <v>46.77099999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>-2720.759860292643</v>
+        <v>-1633.400098717139</v>
       </c>
       <c r="K91" t="n">
         <v>88.150002</v>
@@ -5579,28 +5579,28 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>61.17</v>
+        <v>66</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.32</v>
+        <v>0.85</v>
       </c>
       <c r="F92" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>47.33699999999993</v>
+        <v>47.897</v>
       </c>
       <c r="H92" t="n">
-        <v>15.8</v>
+        <v>49.8</v>
       </c>
       <c r="I92" t="n">
         <v>46.77099999999999</v>
       </c>
       <c r="J92" t="n">
-        <v>-2358.528735790202</v>
+        <v>-1470.84405368443</v>
       </c>
       <c r="K92" t="n">
         <v>94.470001</v>
@@ -5635,13 +5635,13 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>61.17</v>
+        <v>66</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.32</v>
+        <v>1.15</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>46.8189999999999</v>
       </c>
       <c r="J93" t="n">
-        <v>-2668.604485349189</v>
+        <v>-1419.391900543368</v>
       </c>
       <c r="K93" t="n">
         <v>97.68000000000001</v>
@@ -5691,13 +5691,13 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>48.4</v>
+        <v>61.08</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.32</v>
+        <v>1.15</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>46.8189999999999</v>
       </c>
       <c r="J94" t="n">
-        <v>-1451.142183146919</v>
+        <v>-1402.141796253765</v>
       </c>
       <c r="K94" t="n">
         <v>98.25</v>
@@ -5747,13 +5747,13 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>48.4</v>
+        <v>61.08</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -5803,13 +5803,13 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>48.4</v>
+        <v>61.08</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -5859,13 +5859,13 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>48.4</v>
+        <v>61.08</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -5921,22 +5921,22 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G98" t="n">
-        <v>50.46700000000001</v>
+        <v>48.5929999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>47.221</v>
+        <v>47.234</v>
       </c>
       <c r="J98" t="n">
-        <v>-1427.516983282353</v>
+        <v>3414.15303341817</v>
       </c>
       <c r="K98" t="n">
         <v>86.29998999999999</v>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>63.6</v>
+        <v>65</v>
       </c>
       <c r="D102" t="n">
         <v>49.8</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>5325.406193382788</v>
+        <v>5380.360597202732</v>
       </c>
       <c r="K102" t="n">
         <v>76.66999800000001</v>
@@ -6195,19 +6195,19 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>63.6</v>
+        <v>65</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>52.211</v>
       </c>
       <c r="H103" t="n">
         <v>49.8</v>
@@ -6216,7 +6216,7 @@
         <v>49.3669999999999</v>
       </c>
       <c r="J103" t="n">
-        <v>-2255.832083429274</v>
+        <v>-2033.604312503847</v>
       </c>
       <c r="K103" t="n">
         <v>83.29998999999999</v>
@@ -6251,13 +6251,13 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>63.6</v>
+        <v>65</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.33</v>
+        <v>0.85</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>49.3669999999999</v>
       </c>
       <c r="J104" t="n">
-        <v>-6648.872463444648</v>
+        <v>-3098.206294862584</v>
       </c>
       <c r="K104" t="n">
         <v>94.41999800000001</v>
@@ -6307,13 +6307,13 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>63.6</v>
+        <v>65</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.35</v>
+        <v>0.86</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -6328,7 +6328,7 @@
         <v>49.3669999999999</v>
       </c>
       <c r="J105" t="n">
-        <v>-7671.864111984579</v>
+        <v>-4136.808440027356</v>
       </c>
       <c r="K105" t="n">
         <v>105.629997</v>
@@ -6363,28 +6363,28 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>58.86</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.35</v>
+        <v>0.86</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G106" t="n">
-        <v>52.13900000000001</v>
+        <v>47.892</v>
       </c>
       <c r="H106" t="n">
-        <v>49.8</v>
+        <v>21.8</v>
       </c>
       <c r="I106" t="n">
         <v>48.93899999999991</v>
       </c>
       <c r="J106" t="n">
-        <v>-11354.839142786</v>
+        <v>-4320.751481147205</v>
       </c>
       <c r="K106" t="n">
         <v>106.910004</v>
@@ -6419,13 +6419,13 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>58.86</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.35</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F107" t="n">
         <v>49.8</v>
@@ -6440,7 +6440,7 @@
         <v>46.832</v>
       </c>
       <c r="J107" t="n">
-        <v>-9554.933831309943</v>
+        <v>-9617.157272391762</v>
       </c>
       <c r="K107" t="n">
         <v>98.59998</v>
@@ -6475,28 +6475,28 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>58.86</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>46.8189999999999</v>
+        <v>46.832</v>
       </c>
       <c r="J108" t="n">
-        <v>-15048.21023065495</v>
+        <v>-11377.08332486149</v>
       </c>
       <c r="K108" t="n">
         <v>93.10002</v>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>58.86</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="D109" t="n">
         <v>49.8</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-4886.248482868348</v>
+        <v>-9512.403052013033</v>
       </c>
       <c r="K109" t="n">
         <v>89.949997</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>63.88</v>
+        <v>79.88</v>
       </c>
       <c r="D110" t="n">
         <v>49.8</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-4167.029886566213</v>
+        <v>-8378.746382832831</v>
       </c>
       <c r="K110" t="n">
         <v>88.89995999999999</v>
@@ -6643,13 +6643,13 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>63.88</v>
+        <v>79.88</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="F111" t="n">
         <v>49.8</v>
@@ -6664,7 +6664,7 @@
         <v>46.737</v>
       </c>
       <c r="J111" t="n">
-        <v>-6510.107434674822</v>
+        <v>-5194.656969894977</v>
       </c>
       <c r="K111" t="n">
         <v>79.19000200000001</v>
@@ -6699,13 +6699,13 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>63.88</v>
+        <v>79.88</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="F112" t="n">
         <v>49.8</v>
@@ -6720,7 +6720,7 @@
         <v>46.737</v>
       </c>
       <c r="J112" t="n">
-        <v>-11716.48881678397</v>
+        <v>-4239.315239545838</v>
       </c>
       <c r="K112" t="n">
         <v>74.510002</v>
@@ -6755,28 +6755,28 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>63.88</v>
+        <v>79.88</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="F113" t="n">
-        <v>49.8</v>
+        <v>45.3</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I113" t="n">
-        <v>46.737</v>
+        <v>46.72399999999999</v>
       </c>
       <c r="J113" t="n">
-        <v>-8515.488340964152</v>
+        <v>-1862.78641791755</v>
       </c>
       <c r="K113" t="n">
         <v>75.10002</v>
@@ -6811,13 +6811,13 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>63.89</v>
+        <v>65.84</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="F114" t="n">
         <v>49.8</v>
@@ -6832,7 +6832,7 @@
         <v>46.785</v>
       </c>
       <c r="J114" t="n">
-        <v>-5282.433493184931</v>
+        <v>1617.843300897908</v>
       </c>
       <c r="K114" t="n">
         <v>75.800003</v>
@@ -6867,28 +6867,28 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>63.89</v>
+        <v>65.84</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.35</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>47.892</v>
       </c>
       <c r="H115" t="n">
-        <v>8.300000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I115" t="n">
         <v>46.77199999999999</v>
       </c>
       <c r="J115" t="n">
-        <v>-2376.787719608021</v>
+        <v>-1527.932070819705</v>
       </c>
       <c r="K115" t="n">
         <v>85.449997</v>
@@ -6923,28 +6923,28 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>63.89</v>
+        <v>65.84</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="F116" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>47.892</v>
       </c>
       <c r="H116" t="n">
-        <v>39.2</v>
+        <v>49.8</v>
       </c>
       <c r="I116" t="n">
         <v>46.77199999999999</v>
       </c>
       <c r="J116" t="n">
-        <v>-2352.726330199999</v>
+        <v>-1456.577660202859</v>
       </c>
       <c r="K116" t="n">
         <v>93.550003</v>
@@ -6979,19 +6979,19 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>63.89</v>
+        <v>65.84</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.35</v>
+        <v>1.15</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>48.005</v>
+        <v>47.892</v>
       </c>
       <c r="H117" t="n">
         <v>49.8</v>
@@ -7000,7 +7000,7 @@
         <v>46.8189999999999</v>
       </c>
       <c r="J117" t="n">
-        <v>-2283.307919754441</v>
+        <v>-1359.758119974944</v>
       </c>
       <c r="K117" t="n">
         <v>103.419998</v>
@@ -7041,13 +7041,13 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.33</v>
+        <v>1.15</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>48.005</v>
+        <v>47.892</v>
       </c>
       <c r="H118" t="n">
         <v>49.8</v>
@@ -7056,7 +7056,7 @@
         <v>46.8189999999999</v>
       </c>
       <c r="J118" t="n">
-        <v>-1407.577155671757</v>
+        <v>-1353.46954839406</v>
       </c>
       <c r="K118" t="n">
         <v>106.10002</v>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -7209,13 +7209,13 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>48.865</v>
+        <v>47.892</v>
       </c>
       <c r="H121" t="n">
         <v>49.8</v>
@@ -7268,19 +7268,19 @@
         <v>0.33</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G122" t="n">
-        <v>47.58</v>
+        <v>47.5689999999999</v>
       </c>
       <c r="H122" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>47.24599999999992</v>
+        <v>47.988</v>
       </c>
       <c r="J122" t="n">
-        <v>-1491.264293321479</v>
+        <v>3390.036436658573</v>
       </c>
       <c r="K122" t="n">
         <v>81.199997</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>5289.619365766569</v>
+        <v>5289.619365766567</v>
       </c>
       <c r="K123" t="n">
         <v>73.379997</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>5182.748534505656</v>
+        <v>5182.748534505658</v>
       </c>
       <c r="K124" t="n">
         <v>70.199997</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>5125.995068171903</v>
+        <v>5125.995068171905</v>
       </c>
       <c r="K125" t="n">
         <v>68.91999800000001</v>
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>63.6</v>
+        <v>79.88</v>
       </c>
       <c r="D126" t="n">
         <v>49.8</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>5171.312252101779</v>
+        <v>5245.576949588349</v>
       </c>
       <c r="K126" t="n">
         <v>69.150002</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>63.6</v>
+        <v>79.88</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -7557,10 +7557,10 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>50.69200000000004</v>
+        <v>50.692</v>
       </c>
       <c r="J127" t="n">
-        <v>1475.535330607506</v>
+        <v>2748.142670650099</v>
       </c>
       <c r="K127" t="n">
         <v>74</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>63.6</v>
+        <v>79.88</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -7604,19 +7604,19 @@
         <v>0.33</v>
       </c>
       <c r="F128" t="n">
-        <v>34.4</v>
+        <v>49.8</v>
       </c>
       <c r="G128" t="n">
         <v>49.98199999999991</v>
       </c>
       <c r="H128" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>-2282.514665113456</v>
+        <v>2188.14100565191</v>
       </c>
       <c r="K128" t="n">
         <v>94.290001</v>
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>63.6</v>
+        <v>79.88</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -7660,19 +7660,19 @@
         <v>0.33</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="G129" t="n">
-        <v>50</v>
+        <v>49.98199999999991</v>
       </c>
       <c r="H129" t="n">
-        <v>49.8</v>
+        <v>18.3</v>
       </c>
       <c r="I129" t="n">
         <v>46.654</v>
       </c>
       <c r="J129" t="n">
-        <v>-6252.036627938283</v>
+        <v>-2487.698761137584</v>
       </c>
       <c r="K129" t="n">
         <v>103.18</v>
@@ -7707,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>60.64</v>
+        <v>79.88</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -7716,19 +7716,19 @@
         <v>0.33</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="G130" t="n">
-        <v>49.893</v>
+        <v>49.87399999999997</v>
       </c>
       <c r="H130" t="n">
-        <v>49.8</v>
+        <v>15.3</v>
       </c>
       <c r="I130" t="n">
         <v>46.654</v>
       </c>
       <c r="J130" t="n">
-        <v>-15924.29018042549</v>
+        <v>-2480.86424433355</v>
       </c>
       <c r="K130" t="n">
         <v>98.489998</v>
@@ -7763,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>60.64</v>
+        <v>79.88</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -7772,19 +7772,19 @@
         <v>0.33</v>
       </c>
       <c r="F131" t="n">
-        <v>49.8</v>
+        <v>31.9</v>
       </c>
       <c r="G131" t="n">
         <v>48.35300000000001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="I131" t="n">
-        <v>47.633</v>
+        <v>46.654</v>
       </c>
       <c r="J131" t="n">
-        <v>-7378.654471189499</v>
+        <v>-2396.306778960002</v>
       </c>
       <c r="K131" t="n">
         <v>94.239998</v>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>60.64</v>
+        <v>79.88</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -7837,10 +7837,10 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>47.63300000000003</v>
+        <v>47.633</v>
       </c>
       <c r="J132" t="n">
-        <v>-11241.8221293156</v>
+        <v>-988.2410225794705</v>
       </c>
       <c r="K132" t="n">
         <v>89.699997</v>
@@ -7875,10 +7875,10 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>60.64</v>
+        <v>79.88</v>
       </c>
       <c r="D133" t="n">
-        <v>49.8</v>
+        <v>34.7</v>
       </c>
       <c r="E133" t="n">
         <v>0.319999999999709</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-1509.821793884268</v>
+        <v>-9.382721541598031</v>
       </c>
       <c r="K133" t="n">
         <v>86.949997</v>
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>63.88</v>
+        <v>74</v>
       </c>
       <c r="D134" t="n">
         <v>49.8</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-8095.199791488669</v>
+        <v>3080.315232863745</v>
       </c>
       <c r="K134" t="n">
         <v>86.739998</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>63.88</v>
+        <v>74</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>47.39500000000003</v>
+        <v>47.395</v>
       </c>
       <c r="J135" t="n">
-        <v>-7111.434007782294</v>
+        <v>797.1215794454861</v>
       </c>
       <c r="K135" t="n">
         <v>78.470001</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>63.88</v>
+        <v>74</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>47.39500000000003</v>
+        <v>47.395</v>
       </c>
       <c r="J136" t="n">
-        <v>-8444.08397349804</v>
+        <v>780.7356916923488</v>
       </c>
       <c r="K136" t="n">
         <v>76.400002</v>
@@ -8099,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>63.88</v>
+        <v>74</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -8117,10 +8117,10 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>47.39500000000003</v>
+        <v>47.395</v>
       </c>
       <c r="J137" t="n">
-        <v>-4396.137679762633</v>
+        <v>2041.963130761774</v>
       </c>
       <c r="K137" t="n">
         <v>81.199997</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>61.17</v>
+        <v>69</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -8164,19 +8164,19 @@
         <v>0.33</v>
       </c>
       <c r="F138" t="n">
-        <v>28.9</v>
+        <v>49.8</v>
       </c>
       <c r="G138" t="n">
         <v>47.33699999999993</v>
       </c>
       <c r="H138" t="n">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>47.2999999999999</v>
+        <v>47.635</v>
       </c>
       <c r="J138" t="n">
-        <v>-2367.045408069999</v>
+        <v>2910.886399081335</v>
       </c>
       <c r="K138" t="n">
         <v>84.959999</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>61.17</v>
+        <v>69</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -8220,19 +8220,19 @@
         <v>0.33</v>
       </c>
       <c r="F139" t="n">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>47.33699999999993</v>
       </c>
       <c r="H139" t="n">
-        <v>39.1</v>
+        <v>49.8</v>
       </c>
       <c r="I139" t="n">
         <v>47.2999999999999</v>
       </c>
       <c r="J139" t="n">
-        <v>-2375.147554849998</v>
+        <v>-1541.091825170021</v>
       </c>
       <c r="K139" t="n">
         <v>90.449997</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>61.17</v>
+        <v>69</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -8276,19 +8276,19 @@
         <v>0.33</v>
       </c>
       <c r="F140" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>47.33699999999993</v>
       </c>
       <c r="H140" t="n">
-        <v>5.600000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I140" t="n">
         <v>47.2999999999999</v>
       </c>
       <c r="J140" t="n">
-        <v>-2360.234262700003</v>
+        <v>-1486.958379111347</v>
       </c>
       <c r="K140" t="n">
         <v>99.620003</v>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>61.17</v>
+        <v>69</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>47.348</v>
+        <v>47.33699999999993</v>
       </c>
       <c r="H141" t="n">
         <v>49.8</v>
@@ -8344,7 +8344,7 @@
         <v>47.44200000000001</v>
       </c>
       <c r="J141" t="n">
-        <v>-1962.845015251633</v>
+        <v>-1419.605390925861</v>
       </c>
       <c r="K141" t="n">
         <v>123.959999</v>
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>50.52</v>
+        <v>59</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>47.348</v>
+        <v>47.33699999999993</v>
       </c>
       <c r="H142" t="n">
         <v>49.8</v>
@@ -8400,7 +8400,7 @@
         <v>47.44200000000001</v>
       </c>
       <c r="J142" t="n">
-        <v>-1404.50744601543</v>
+        <v>-1404.507446015426</v>
       </c>
       <c r="K142" t="n">
         <v>117.959999</v>
@@ -8435,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>50.52</v>
+        <v>59</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>47.348</v>
+        <v>47.33699999999993</v>
       </c>
       <c r="H143" t="n">
         <v>49.8</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>50.52</v>
+        <v>59</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>47.348</v>
+        <v>47.33699999999993</v>
       </c>
       <c r="H144" t="n">
         <v>49.8</v>
@@ -8512,7 +8512,7 @@
         <v>47.82299999999992</v>
       </c>
       <c r="J144" t="n">
-        <v>-1550.184601701166</v>
+        <v>-1550.184601701163</v>
       </c>
       <c r="K144" t="n">
         <v>97.489998</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>50.52</v>
+        <v>59</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>47.348</v>
+        <v>47.33699999999993</v>
       </c>
       <c r="H145" t="n">
         <v>49.8</v>
@@ -8568,7 +8568,7 @@
         <v>47.82299999999992</v>
       </c>
       <c r="J145" t="n">
-        <v>-1644.284787838561</v>
+        <v>-1644.284787838563</v>
       </c>
       <c r="K145" t="n">
         <v>89.589996</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>47.58</v>
+        <v>47.5689999999999</v>
       </c>
       <c r="H146" t="n">
         <v>47.8</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>5220.939152455544</v>
+        <v>5220.93915245554</v>
       </c>
       <c r="K149" t="n">
         <v>74.40000999999999</v>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>60.4</v>
+        <v>82.60000000000001</v>
       </c>
       <c r="D150" t="n">
         <v>49.8</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>5134.932257464941</v>
+        <v>5383.031227737275</v>
       </c>
       <c r="K150" t="n">
         <v>72.870003</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>60.4</v>
+        <v>82.60000000000001</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>49.384</v>
       </c>
       <c r="J151" t="n">
-        <v>1667.259893707902</v>
+        <v>2729.957896789614</v>
       </c>
       <c r="K151" t="n">
         <v>72.449997</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>60.4</v>
+        <v>82.60000000000001</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -8948,19 +8948,19 @@
         <v>0.33</v>
       </c>
       <c r="F152" t="n">
-        <v>49.8</v>
+        <v>29.9</v>
       </c>
       <c r="G152" t="n">
         <v>49.98099999999999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="I152" t="n">
-        <v>49.384</v>
+        <v>49.3669999999999</v>
       </c>
       <c r="J152" t="n">
-        <v>-2884.586714139395</v>
+        <v>-2477.060726141342</v>
       </c>
       <c r="K152" t="n">
         <v>74.19996999999999</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>60.4</v>
+        <v>82.60000000000001</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>49.384</v>
       </c>
       <c r="J153" t="n">
-        <v>-6564.291977849559</v>
+        <v>-5142.268820708103</v>
       </c>
       <c r="K153" t="n">
         <v>80.19996999999999</v>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>60.64</v>
+        <v>85.44</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -9072,7 +9072,7 @@
         <v>48.955</v>
       </c>
       <c r="J154" t="n">
-        <v>-8534.773629976578</v>
+        <v>-8639.114693559926</v>
       </c>
       <c r="K154" t="n">
         <v>80.410004</v>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>60.64</v>
+        <v>85.44</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -9128,7 +9128,7 @@
         <v>46.83</v>
       </c>
       <c r="J155" t="n">
-        <v>-12119.16386941883</v>
+        <v>-11511.62251911724</v>
       </c>
       <c r="K155" t="n">
         <v>79.220001</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>60.64</v>
+        <v>85.44</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>46.83</v>
       </c>
       <c r="J156" t="n">
-        <v>-9531.286905009796</v>
+        <v>-12366.19136805391</v>
       </c>
       <c r="K156" t="n">
         <v>74.730003</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>60.64</v>
+        <v>85.44</v>
       </c>
       <c r="D157" t="n">
         <v>49.8</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-7957.434073753717</v>
+        <v>-9133.424976871263</v>
       </c>
       <c r="K157" t="n">
         <v>68.5</v>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>50</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="D158" t="n">
         <v>49.8</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-9916.454818136244</v>
+        <v>-8633.844436894042</v>
       </c>
       <c r="K158" t="n">
         <v>70.29998999999999</v>
@@ -9331,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>50</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -9352,7 +9352,7 @@
         <v>46.735</v>
       </c>
       <c r="J159" t="n">
-        <v>-5330.520982035636</v>
+        <v>-6441.549313638713</v>
       </c>
       <c r="K159" t="n">
         <v>65.80999799999999</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>50</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -9408,7 +9408,7 @@
         <v>46.735</v>
       </c>
       <c r="J160" t="n">
-        <v>-7574.045531019717</v>
+        <v>-3417.071906536351</v>
       </c>
       <c r="K160" t="n">
         <v>68.83000199999999</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>50</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>46.735</v>
       </c>
       <c r="J161" t="n">
-        <v>-6811.555456935677</v>
+        <v>-725.7344539868579</v>
       </c>
       <c r="K161" t="n">
         <v>70.400002</v>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>61.17</v>
+        <v>95.95</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -9520,7 +9520,7 @@
         <v>46.772</v>
       </c>
       <c r="J162" t="n">
-        <v>-2393.203222157594</v>
+        <v>2054.613113523129</v>
       </c>
       <c r="K162" t="n">
         <v>73</v>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>61.17</v>
+        <v>95.95</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>0.33</v>
       </c>
       <c r="F163" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
         <v>47.33699999999993</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I163" t="n">
-        <v>46.772</v>
+        <v>46.77099999999999</v>
       </c>
       <c r="J163" t="n">
-        <v>-2363.337479612995</v>
+        <v>-1632.485236414305</v>
       </c>
       <c r="K163" t="n">
         <v>81.30999799999999</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>61.17</v>
+        <v>95.95</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -9620,19 +9620,19 @@
         <v>0.33</v>
       </c>
       <c r="F164" t="n">
-        <v>22.9</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
         <v>47.33699999999993</v>
       </c>
       <c r="H164" t="n">
-        <v>26.9</v>
+        <v>49.8</v>
       </c>
       <c r="I164" t="n">
         <v>46.77099999999999</v>
       </c>
       <c r="J164" t="n">
-        <v>-2337.490114539418</v>
+        <v>-1436.762296198681</v>
       </c>
       <c r="K164" t="n">
         <v>93.160004</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>61.17</v>
+        <v>95.95</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -9676,19 +9676,19 @@
         <v>0.33</v>
       </c>
       <c r="F165" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>47.33699999999993</v>
       </c>
       <c r="H165" t="n">
-        <v>46.3</v>
+        <v>49.8</v>
       </c>
       <c r="I165" t="n">
         <v>46.8189999999999</v>
       </c>
       <c r="J165" t="n">
-        <v>-2330.594594887988</v>
+        <v>-1406.256208101693</v>
       </c>
       <c r="K165" t="n">
         <v>97.910004</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>48.4</v>
+        <v>70.16</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>47.34799999999998</v>
+        <v>47.33699999999993</v>
       </c>
       <c r="H166" t="n">
         <v>49.8</v>
@@ -9744,7 +9744,7 @@
         <v>46.8189999999999</v>
       </c>
       <c r="J166" t="n">
-        <v>-1431.978923721868</v>
+        <v>-1406.42038712226</v>
       </c>
       <c r="K166" t="n">
         <v>99.19000200000001</v>
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>48.4</v>
+        <v>70.16</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>47.34799999999998</v>
+        <v>47.33699999999993</v>
       </c>
       <c r="H167" t="n">
         <v>49.8</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>48.4</v>
+        <v>70.16</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>47.34799999999998</v>
+        <v>47.33699999999993</v>
       </c>
       <c r="H168" t="n">
         <v>49.8</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>48.4</v>
+        <v>70.16</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>47.34799999999998</v>
+        <v>47.33699999999993</v>
       </c>
       <c r="H169" t="n">
         <v>49.8</v>
